--- a/C&DQA/Templates/CFIA DQA-KO.xlsx
+++ b/C&DQA/Templates/CFIA DQA-KO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alcanada-my.sharepoint.com/personal/koconnor_alcanada_com/Documents/Desktop/A&amp;L/1. CQA, STP Compost/CQA parts/CQA templates/2022 templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2022Ontario\TEMPLATES BEING USED\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E2BE36-FB32-4D02-9526-F5EC098A24EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94003374-2AFA-4C01-9DCC-694BF9252037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="420" windowWidth="27450" windowHeight="15720" xr2:uid="{67E81C86-6822-4FF3-8FD6-75615406739D}"/>
+    <workbookView xWindow="2160" yWindow="0" windowWidth="27450" windowHeight="15720" xr2:uid="{67E81C86-6822-4FF3-8FD6-75615406739D}"/>
   </bookViews>
   <sheets>
     <sheet name="CCME CFIA" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>Trace Elements</t>
   </si>
@@ -400,21 +400,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bulk density </t>
-  </si>
-  <si>
-    <r>
-      <t>kg/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
   </si>
   <si>
     <t>%DM</t>
@@ -515,7 +500,30 @@
     </r>
   </si>
   <si>
-    <t>10mt/ha/year</t>
+    <t>(ug/g)*</t>
+  </si>
+  <si>
+    <t>* ug/g is equal to mg/kg equal to ppm</t>
+  </si>
+  <si>
+    <t>¥ Loading over 45 years based on test results at 10t/ha/yr application rate</t>
+  </si>
+  <si>
+    <r>
+      <t>10mt/ha/year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>¥</t>
+    </r>
+  </si>
+  <si>
+    <t>g/ml</t>
   </si>
 </sst>
 </file>
@@ -525,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,12 +584,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
@@ -651,13 +653,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Franklin Gothic Book"/>
@@ -685,13 +680,6 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
@@ -726,6 +714,12 @@
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1314,10 +1308,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1327,7 +1321,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,19 +1343,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,23 +1394,17 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1431,19 +1419,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1458,9 +1446,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1479,10 +1464,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,55 +1476,37 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,28 +1527,28 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1590,10 +1557,10 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,302 +1596,329 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1986,7 +1980,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="571500"/>
@@ -2082,16 +2076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>219379</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257479</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2121,7 +2115,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4562779" y="8867775"/>
+          <a:off x="4991404" y="9020175"/>
           <a:ext cx="1314146" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2441,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70944FC-B8A1-4741-88AD-DF09FEF24338}">
-  <dimension ref="A2:L89"/>
+  <dimension ref="A2:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="D57" sqref="D57:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2467,411 +2461,411 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
+      <c r="A5" s="195" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="122" t="s">
+      <c r="B6" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="197"/>
+      <c r="D6" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="97" t="s">
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="125" t="s">
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125" t="s">
+      <c r="F7" s="106"/>
+      <c r="G7" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="106"/>
+      <c r="I7" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="198"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
+    </row>
+    <row r="10" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="94" t="s">
+      <c r="E10" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="109"/>
+      <c r="I10" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="174"/>
+      <c r="K10" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="84"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="107">
+        <v>13</v>
+      </c>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107">
+        <v>75</v>
+      </c>
+      <c r="H11" s="107"/>
+      <c r="I11" s="175">
+        <v>15</v>
+      </c>
+      <c r="J11" s="175"/>
+      <c r="K11" s="101">
+        <f>((D11*500*45)/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="105">
+        <v>3</v>
+      </c>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105">
+        <v>20</v>
+      </c>
+      <c r="H12" s="105"/>
+      <c r="I12" s="99">
+        <v>4</v>
+      </c>
+      <c r="J12" s="99"/>
+      <c r="K12" s="79">
+        <f t="shared" ref="K12:K21" si="0">((D12*500*45)/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="80"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="105">
+        <v>310</v>
+      </c>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="105"/>
+      <c r="I13" s="99">
+        <v>210</v>
+      </c>
+      <c r="J13" s="99"/>
+      <c r="K13" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="80"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="105">
+        <v>34</v>
+      </c>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105">
+        <v>150</v>
+      </c>
+      <c r="H14" s="105"/>
+      <c r="I14" s="99">
+        <v>30</v>
+      </c>
+      <c r="J14" s="99"/>
+      <c r="K14" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="80"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="105">
+        <v>400</v>
+      </c>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="105"/>
+      <c r="I15" s="99">
+        <v>150</v>
+      </c>
+      <c r="J15" s="99"/>
+      <c r="K15" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="80"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="105">
+        <v>150</v>
+      </c>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105">
+        <v>500</v>
+      </c>
+      <c r="H16" s="105"/>
+      <c r="I16" s="99">
+        <v>100</v>
+      </c>
+      <c r="J16" s="99"/>
+      <c r="K16" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="80"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="105">
+        <v>0.08</v>
+      </c>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105">
         <v>5</v>
       </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="96"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96"/>
-    </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="126"/>
-      <c r="G10" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="209" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="209"/>
-      <c r="K10" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="93"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="128" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="130">
-        <v>13</v>
-      </c>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130">
-        <v>75</v>
-      </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="210">
-        <v>15</v>
-      </c>
-      <c r="J11" s="210"/>
-      <c r="K11" s="110">
-        <f>((D11*500*45)/1000000)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="111"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="114">
-        <v>3</v>
-      </c>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114">
+      <c r="H17" s="105"/>
+      <c r="I17" s="99">
+        <v>1</v>
+      </c>
+      <c r="J17" s="99"/>
+      <c r="K17" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="80"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="105">
+        <v>5</v>
+      </c>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105">
         <v>20</v>
       </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="108">
+      <c r="H18" s="105"/>
+      <c r="I18" s="99">
         <v>4</v>
       </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="88">
-        <f t="shared" ref="K12:K21" si="0">((D12*500*45)/1000000)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="89"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="114">
-        <v>310</v>
-      </c>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="108">
-        <v>210</v>
-      </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="88">
+      <c r="J18" s="99"/>
+      <c r="K18" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="89"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="114">
-        <v>34</v>
-      </c>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114">
-        <v>150</v>
-      </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="108">
-        <v>30</v>
-      </c>
-      <c r="J14" s="108"/>
-      <c r="K14" s="88">
+      <c r="L18" s="80"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="105">
+        <v>62</v>
+      </c>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105">
+        <v>180</v>
+      </c>
+      <c r="H19" s="105"/>
+      <c r="I19" s="99">
+        <v>36</v>
+      </c>
+      <c r="J19" s="99"/>
+      <c r="K19" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="89"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="114">
-        <v>400</v>
-      </c>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="114"/>
-      <c r="I15" s="108">
-        <v>150</v>
-      </c>
-      <c r="J15" s="108"/>
-      <c r="K15" s="88">
+      <c r="L19" s="80"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="105">
+        <v>2</v>
+      </c>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105">
+        <v>14</v>
+      </c>
+      <c r="H20" s="105"/>
+      <c r="I20" s="99">
+        <v>2.8</v>
+      </c>
+      <c r="J20" s="99"/>
+      <c r="K20" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="89"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="114">
-        <v>150</v>
-      </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114">
-        <v>500</v>
-      </c>
-      <c r="H16" s="114"/>
-      <c r="I16" s="108">
-        <v>100</v>
-      </c>
-      <c r="J16" s="108"/>
-      <c r="K16" s="88">
+      <c r="L20" s="80"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="191" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="192"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="159">
+        <v>700</v>
+      </c>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159">
+        <v>1850</v>
+      </c>
+      <c r="H21" s="159"/>
+      <c r="I21" s="139">
+        <v>370</v>
+      </c>
+      <c r="J21" s="139"/>
+      <c r="K21" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="89"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="114">
-        <v>0.08</v>
-      </c>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114">
-        <v>5</v>
-      </c>
-      <c r="H17" s="114"/>
-      <c r="I17" s="108">
-        <v>1</v>
-      </c>
-      <c r="J17" s="108"/>
-      <c r="K17" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="89"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="114">
-        <v>5</v>
-      </c>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114">
-        <v>20</v>
-      </c>
-      <c r="H18" s="114"/>
-      <c r="I18" s="108">
-        <v>4</v>
-      </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="89"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="114">
-        <v>62</v>
-      </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114">
-        <v>180</v>
-      </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="108">
-        <v>36</v>
-      </c>
-      <c r="J19" s="108"/>
-      <c r="K19" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="89"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="114">
-        <v>2</v>
-      </c>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114">
-        <v>14</v>
-      </c>
-      <c r="H20" s="114"/>
-      <c r="I20" s="108">
-        <v>2.8</v>
-      </c>
-      <c r="J20" s="108"/>
-      <c r="K20" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="89"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="133">
-        <v>700</v>
-      </c>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133">
-        <v>1850</v>
-      </c>
-      <c r="H21" s="133"/>
-      <c r="I21" s="176">
-        <v>370</v>
-      </c>
-      <c r="J21" s="176"/>
-      <c r="K21" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="91"/>
+      <c r="L21" s="82"/>
     </row>
     <row r="22" spans="1:12" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -2882,1215 +2876,1213 @@
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="141" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="183" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="184"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="42" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="188"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="143" t="s">
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="157"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="189"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="145" t="s">
+      <c r="C28" s="186"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="158"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="189"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="134" t="s">
+      <c r="C29" s="188"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="158"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="190"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
+      <c r="C30" s="177"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="136" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="137"/>
-      <c r="D31" s="43" t="s">
+      <c r="C33" s="179"/>
+      <c r="D33" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="137" t="s">
+      <c r="E33" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137" t="s">
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="137"/>
-      <c r="J31" s="147"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="138" t="s">
+      <c r="I33" s="179"/>
+      <c r="J33" s="189"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="139"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="140" t="s">
+      <c r="C34" s="181"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140" t="s">
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="140"/>
-      <c r="J32" s="148"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="157" t="s">
+      <c r="I34" s="182"/>
+      <c r="J34" s="190"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="158"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="159" t="s">
+      <c r="C35" s="121"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159" t="s">
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="159"/>
-      <c r="J33" s="160"/>
-    </row>
-    <row r="34" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+      <c r="I35" s="122"/>
+      <c r="J35" s="123"/>
+    </row>
+    <row r="36" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="211" t="s">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="211"/>
-      <c r="C47" s="211"/>
-      <c r="D47" s="211"/>
-      <c r="E47" s="211"/>
-      <c r="F47" s="211"/>
-      <c r="G47" s="211"/>
-      <c r="H47" s="211"/>
-      <c r="I47" s="211"/>
-      <c r="J47" s="211"/>
-    </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="211" t="s">
+      <c r="B48" s="173"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="173"/>
+      <c r="E48" s="173"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="173"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="173"/>
+    </row>
+    <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="211"/>
-      <c r="C48" s="211"/>
-      <c r="D48" s="211"/>
-      <c r="E48" s="211"/>
-      <c r="F48" s="211"/>
-      <c r="G48" s="211"/>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="211"/>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="151" t="s">
+      <c r="B49" s="173"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="173"/>
+      <c r="J49" s="173"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="28"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="38" t="s">
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="152"/>
-      <c r="L50" s="167"/>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="153" t="s">
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
+      <c r="L51" s="130"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="165"/>
-      <c r="L51" s="166"/>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="149" t="s">
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="129"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="150"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="163"/>
-      <c r="F52" s="163"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="163"/>
-      <c r="J52" s="163"/>
-      <c r="K52" s="163"/>
-      <c r="L52" s="164"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="155" t="s">
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="127"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="156"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="162"/>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="63" t="s">
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="125"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="172" t="s">
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="173"/>
-      <c r="C56" s="173"/>
-      <c r="D56" s="75" t="s">
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="77" t="s">
+      <c r="E57" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="102"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="174"/>
-      <c r="B57" s="175"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="103"/>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="170" t="s">
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="93"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="137"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="206"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="94"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="171"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="62" t="s">
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="105"/>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="205" t="s">
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="96"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="206"/>
-      <c r="C59" s="206"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="107"/>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="205" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="206"/>
-      <c r="C60" s="206"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="147"/>
       <c r="D60" s="37"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="107"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="97"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="98"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="207" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="208"/>
-      <c r="C61" s="208"/>
+      <c r="A61" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
       <c r="D61" s="37"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="106"/>
-      <c r="L61" s="107"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="98"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="203" t="s">
+      <c r="A62" s="144" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="98"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="204"/>
-      <c r="C62" s="204"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="22" t="s">
+      <c r="B63" s="149"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="106"/>
-      <c r="K62" s="106"/>
-      <c r="L62" s="107"/>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="203" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="204"/>
-      <c r="C63" s="204"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="57" t="s">
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="98"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="109"/>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="203" t="s">
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="100"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="204"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="108"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
-      <c r="J64" s="108"/>
-      <c r="K64" s="108"/>
-      <c r="L64" s="109"/>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="168" t="s">
+      <c r="B65" s="149"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="99"/>
+      <c r="J65" s="99"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="100"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="27" t="s">
+      <c r="B66" s="132"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="176"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="176"/>
-      <c r="I65" s="176"/>
-      <c r="J65" s="176"/>
-      <c r="K65" s="176"/>
-      <c r="L65" s="177"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="65" t="s">
+      <c r="F66" s="139"/>
+      <c r="G66" s="139"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="139"/>
+      <c r="J66" s="139"/>
+      <c r="K66" s="139"/>
+      <c r="L66" s="140"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="69" t="s">
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="75" t="s">
+      <c r="B68" s="67"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="77" t="s">
+      <c r="E68" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="83" t="s">
+      <c r="F68" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="85"/>
-    </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="72"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="79" t="s">
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="76"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="69"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="206"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="80"/>
-      <c r="H68" s="79" t="s">
+      <c r="G69" s="210"/>
+      <c r="H69" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="I68" s="80"/>
-      <c r="J68" s="58" t="s">
+      <c r="I69" s="210"/>
+      <c r="J69" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="K68" s="81" t="s">
+      <c r="K69" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="L68" s="82"/>
-    </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="200" t="s">
+      <c r="L69" s="213"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="201"/>
-      <c r="C69" s="202"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="21" t="s">
+      <c r="B70" s="171"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="100">
-        <f>D69/0.1</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100">
-        <f>D69*20</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="100"/>
-      <c r="J69" s="34">
-        <f>D69*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="100">
-        <f>D69*100</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="101"/>
-    </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="184" t="s">
+      <c r="F70" s="91">
+        <f>D70/0.1</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91">
+        <f>D70*20</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="91"/>
+      <c r="J70" s="34">
+        <f>D70*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="91">
+        <f>D70*100</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="92"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="185"/>
-      <c r="C70" s="186"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="86">
-        <f>D70*0.001</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86">
-        <f>D70*0.002</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="86"/>
-      <c r="J70" s="35">
-        <f>D70/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="86">
-        <f>D70/100</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="87"/>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="184" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" s="185"/>
-      <c r="C71" s="186"/>
+      <c r="B71" s="154"/>
+      <c r="C71" s="155"/>
       <c r="D71" s="39"/>
       <c r="E71" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="86">
+      <c r="F71" s="77">
         <f>D71*0.001</f>
         <v>0</v>
       </c>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86">
+      <c r="G71" s="77"/>
+      <c r="H71" s="77">
         <f>D71*0.002</f>
         <v>0</v>
       </c>
-      <c r="I71" s="86"/>
+      <c r="I71" s="77"/>
       <c r="J71" s="35">
-        <f t="shared" ref="J71:J79" si="1">D71*0.01</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="86">
+        <f>D71/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="77">
         <f>D71/100</f>
         <v>0</v>
       </c>
-      <c r="L71" s="87"/>
+      <c r="L71" s="78"/>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="197" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="198"/>
-      <c r="C72" s="199"/>
+      <c r="A72" s="153" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="154"/>
+      <c r="C72" s="155"/>
       <c r="D72" s="39"/>
       <c r="E72" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="86">
-        <f t="shared" ref="F72" si="2">D72/0.1</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="86"/>
-      <c r="H72" s="86">
-        <f t="shared" ref="H72:H79" si="3">D72*20</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="86"/>
+        <v>46</v>
+      </c>
+      <c r="F72" s="77">
+        <f>D72*0.001</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77">
+        <f>D72*0.002</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="77"/>
       <c r="J72" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="86">
-        <f t="shared" ref="K72:K79" si="4">D72*100</f>
-        <v>0</v>
-      </c>
-      <c r="L72" s="87"/>
+        <f t="shared" ref="J72:J80" si="1">D72*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="77">
+        <f>D72/100</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="78"/>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="191" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="192"/>
-      <c r="C73" s="193"/>
+      <c r="A73" s="167" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="168"/>
+      <c r="C73" s="169"/>
       <c r="D73" s="39"/>
       <c r="E73" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="86">
-        <f t="shared" ref="F73:F79" si="5">D73/0.1</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="86"/>
-      <c r="H73" s="86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="86"/>
-      <c r="J73" s="60">
+      <c r="F73" s="77">
+        <f t="shared" ref="F73" si="2">D73/0.1</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77">
+        <f t="shared" ref="H73:H80" si="3">D73*20</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="77"/>
+      <c r="J73" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K73" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="87"/>
+      <c r="K73" s="77">
+        <f t="shared" ref="K73:K80" si="4">D73*100</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="78"/>
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="194" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="195"/>
-      <c r="C74" s="196"/>
+      <c r="A74" s="161" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="162"/>
+      <c r="C74" s="163"/>
       <c r="D74" s="39"/>
       <c r="E74" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="86">
+      <c r="F74" s="77">
+        <f t="shared" ref="F74:F80" si="5">D74/0.1</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="77"/>
+      <c r="J74" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="78"/>
+    </row>
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="164" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G74" s="86"/>
-      <c r="H74" s="86">
+      <c r="G75" s="77"/>
+      <c r="H75" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I74" s="86"/>
-      <c r="J74" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="87"/>
-    </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="178" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="179"/>
-      <c r="C75" s="180"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="86"/>
-      <c r="H75" s="86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="86"/>
+      <c r="I75" s="77"/>
       <c r="J75" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K75" s="86">
+      <c r="K75" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L75" s="87"/>
+      <c r="L75" s="78"/>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="184" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="185"/>
-      <c r="C76" s="186"/>
+      <c r="A76" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="86">
+      <c r="F76" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G76" s="86"/>
-      <c r="H76" s="86">
+      <c r="G76" s="77"/>
+      <c r="H76" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I76" s="86"/>
+      <c r="I76" s="77"/>
       <c r="J76" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K76" s="86">
+      <c r="K76" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L76" s="87"/>
+      <c r="L76" s="78"/>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="184" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="185"/>
-      <c r="C77" s="186"/>
+      <c r="A77" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="154"/>
+      <c r="C77" s="155"/>
       <c r="D77" s="39"/>
       <c r="E77" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="86">
+      <c r="F77" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G77" s="86"/>
-      <c r="H77" s="86">
+      <c r="G77" s="77"/>
+      <c r="H77" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="86"/>
+      <c r="I77" s="77"/>
       <c r="J77" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K77" s="86">
+      <c r="K77" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L77" s="87"/>
+      <c r="L77" s="78"/>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="184" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="185"/>
-      <c r="C78" s="186"/>
+      <c r="A78" s="153" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="154"/>
+      <c r="C78" s="155"/>
       <c r="D78" s="39"/>
       <c r="E78" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="86">
+      <c r="F78" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86">
+      <c r="G78" s="77"/>
+      <c r="H78" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I78" s="86"/>
+      <c r="I78" s="77"/>
       <c r="J78" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K78" s="86">
+      <c r="K78" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L78" s="87"/>
+      <c r="L78" s="78"/>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="185"/>
-      <c r="C79" s="186"/>
+      <c r="A79" s="153" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="154"/>
+      <c r="C79" s="155"/>
       <c r="D79" s="39"/>
       <c r="E79" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F79" s="86">
+      <c r="F79" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G79" s="86"/>
-      <c r="H79" s="86">
+      <c r="G79" s="77"/>
+      <c r="H79" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I79" s="86"/>
+      <c r="I79" s="77"/>
       <c r="J79" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K79" s="86">
+      <c r="K79" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L79" s="87"/>
+      <c r="L79" s="78"/>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="184" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="185"/>
-      <c r="C80" s="186"/>
+      <c r="A80" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="154"/>
+      <c r="C80" s="155"/>
       <c r="D80" s="39"/>
       <c r="E80" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="86">
-        <f>D80*0.001</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="86"/>
-      <c r="H80" s="86">
-        <f>D80*0.002</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="86"/>
+        <v>38</v>
+      </c>
+      <c r="F80" s="77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="77"/>
       <c r="J80" s="35">
-        <f t="shared" ref="J80:J88" si="6">D80/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="K80" s="86">
-        <f>D80/100</f>
-        <v>0</v>
-      </c>
-      <c r="L80" s="87"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="78"/>
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="184" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="185"/>
-      <c r="C81" s="186"/>
+      <c r="A81" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="154"/>
+      <c r="C81" s="155"/>
       <c r="D81" s="39"/>
       <c r="E81" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="86">
-        <f t="shared" ref="F81:F88" si="7">D81*0.001</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="86"/>
-      <c r="H81" s="86">
-        <f t="shared" ref="H81:H87" si="8">D81*0.002</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="86"/>
+      <c r="F81" s="77">
+        <f>D81*0.001</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77">
+        <f>D81*0.002</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="77"/>
       <c r="J81" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="86">
-        <f t="shared" ref="K81:K88" si="9">D81/100</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="87"/>
+        <f t="shared" ref="J81:J89" si="6">D81/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="77">
+        <f>D81/100</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="78"/>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="178" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="179"/>
-      <c r="C82" s="180"/>
+      <c r="A82" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="154"/>
+      <c r="C82" s="155"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="86">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="86"/>
+      <c r="F82" s="77">
+        <f t="shared" ref="F82:F89" si="7">D82*0.001</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77">
+        <f t="shared" ref="H82:H88" si="8">D82*0.002</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="77"/>
       <c r="J82" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K82" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L82" s="87"/>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="178" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="179"/>
-      <c r="C83" s="180"/>
+      <c r="K82" s="77">
+        <f t="shared" ref="K82:K89" si="9">D82/100</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="78"/>
+    </row>
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="142"/>
+      <c r="C83" s="143"/>
       <c r="D83" s="39"/>
       <c r="E83" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="86">
+      <c r="F83" s="77">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G83" s="86"/>
-      <c r="H83" s="86">
+      <c r="G83" s="77"/>
+      <c r="H83" s="77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I83" s="86"/>
+      <c r="I83" s="77"/>
       <c r="J83" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K83" s="86">
+      <c r="K83" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L83" s="87"/>
-    </row>
-    <row r="84" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="178" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="179"/>
-      <c r="C84" s="180"/>
+      <c r="L83" s="78"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="142"/>
+      <c r="C84" s="143"/>
       <c r="D84" s="39"/>
       <c r="E84" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="86">
+      <c r="F84" s="77">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G84" s="86"/>
-      <c r="H84" s="86">
+      <c r="G84" s="77"/>
+      <c r="H84" s="77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I84" s="86"/>
+      <c r="I84" s="77"/>
       <c r="J84" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K84" s="86">
+      <c r="K84" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L84" s="87"/>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="178" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="179"/>
-      <c r="C85" s="180"/>
+      <c r="L84" s="78"/>
+    </row>
+    <row r="85" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="141" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="142"/>
+      <c r="C85" s="143"/>
       <c r="D85" s="39"/>
       <c r="E85" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F85" s="86">
+      <c r="F85" s="77">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G85" s="86"/>
-      <c r="H85" s="86">
+      <c r="G85" s="77"/>
+      <c r="H85" s="77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I85" s="86"/>
+      <c r="I85" s="77"/>
       <c r="J85" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K85" s="86">
+      <c r="K85" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L85" s="87"/>
+      <c r="L85" s="78"/>
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="178" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="179"/>
-      <c r="C86" s="180"/>
+      <c r="A86" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="142"/>
+      <c r="C86" s="143"/>
       <c r="D86" s="39"/>
       <c r="E86" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="86">
+      <c r="F86" s="77">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G86" s="86"/>
-      <c r="H86" s="86">
+      <c r="G86" s="77"/>
+      <c r="H86" s="77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I86" s="86"/>
+      <c r="I86" s="77"/>
       <c r="J86" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K86" s="86">
+      <c r="K86" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L86" s="87"/>
+      <c r="L86" s="78"/>
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="178" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" s="179"/>
-      <c r="C87" s="180"/>
+      <c r="A87" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="142"/>
+      <c r="C87" s="143"/>
       <c r="D87" s="39"/>
       <c r="E87" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="86">
+      <c r="F87" s="77">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G87" s="86"/>
-      <c r="H87" s="86">
+      <c r="G87" s="77"/>
+      <c r="H87" s="77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I87" s="86"/>
+      <c r="I87" s="77"/>
       <c r="J87" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K87" s="86">
+      <c r="K87" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L87" s="87"/>
-    </row>
-    <row r="88" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="181" t="s">
+      <c r="L87" s="78"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="141" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="142"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="77"/>
+      <c r="J88" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="78"/>
+    </row>
+    <row r="89" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="182"/>
-      <c r="C88" s="183"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="23" t="s">
+      <c r="B89" s="151"/>
+      <c r="C89" s="152"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F88" s="67">
+      <c r="F89" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67">
-        <f t="shared" ref="H88" si="10">D88*0.002</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="67"/>
-      <c r="J88" s="36">
+      <c r="G89" s="64"/>
+      <c r="H89" s="64">
+        <f t="shared" ref="H89" si="10">D89*0.002</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="64"/>
+      <c r="J89" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K88" s="67">
+      <c r="K89" s="64">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L88" s="68"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
+      <c r="L89" s="65"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="206">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
@@ -4101,78 +4093,6 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F64:L64"/>
-    <mergeCell ref="F65:L65"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="E53:L53"/>
-    <mergeCell ref="E52:L52"/>
-    <mergeCell ref="E51:L51"/>
-    <mergeCell ref="E50:L50"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
@@ -4184,9 +4104,85 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="B6:C10"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F65:L65"/>
+    <mergeCell ref="F66:L66"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="E54:L54"/>
+    <mergeCell ref="E53:L53"/>
+    <mergeCell ref="E52:L52"/>
+    <mergeCell ref="E51:L51"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A48:J48"/>
     <mergeCell ref="G7:H9"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
@@ -4196,6 +4192,9 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:F9"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
@@ -4220,34 +4219,33 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I7:L9"/>
     <mergeCell ref="I6:L6"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K71:L71"/>
     <mergeCell ref="K72:L72"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F56:L57"/>
-    <mergeCell ref="F58:L58"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F57:L58"/>
     <mergeCell ref="F59:L59"/>
     <mergeCell ref="F60:L60"/>
     <mergeCell ref="F61:L61"/>
     <mergeCell ref="F62:L62"/>
     <mergeCell ref="F63:L63"/>
+    <mergeCell ref="F64:L64"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="F89:G89"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="K79:L79"/>
-    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K80:L80"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="H75:I75"/>
@@ -4255,48 +4253,39 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="K88:L88"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
     <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="F67:L67"/>
-    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="F68:L68"/>
     <mergeCell ref="H83:I83"/>
     <mergeCell ref="H84:I84"/>
     <mergeCell ref="H85:I85"/>
     <mergeCell ref="H86:I86"/>
     <mergeCell ref="H87:I87"/>
-    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="H88:I88"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="K82:L82"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="K84:L84"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4306,7 +4295,7 @@
 2136 Jetstream Rd London On N5V 3P5 (519) 457-2575</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="J70" formula="1"/>
+    <ignoredError sqref="J71" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/C&DQA/Templates/CFIA DQA-KO.xlsx
+++ b/C&DQA/Templates/CFIA DQA-KO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2022Ontario\TEMPLATES BEING USED\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CQA\FULL CQA - DQA\C&amp;DQA\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94003374-2AFA-4C01-9DCC-694BF9252037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D0136-7AE3-4E24-96A5-63DACB2F52E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="0" windowWidth="27450" windowHeight="15720" xr2:uid="{67E81C86-6822-4FF3-8FD6-75615406739D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{67E81C86-6822-4FF3-8FD6-75615406739D}"/>
   </bookViews>
   <sheets>
     <sheet name="CCME CFIA" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -763,19 +763,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1324,10 +1311,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1340,16 +1327,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1358,52 +1345,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,37 +1430,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1482,379 +1478,406 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1866,58 +1889,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2437,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70944FC-B8A1-4741-88AD-DF09FEF24338}">
   <dimension ref="A2:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D58"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2461,411 +2448,411 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="205" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="202" t="s">
+      <c r="B6" s="208" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="209"/>
+      <c r="D6" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="204" t="s">
+      <c r="E6" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="88" t="s">
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="198"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="106" t="s">
+      <c r="B7" s="210"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106" t="s">
+      <c r="F7" s="115"/>
+      <c r="G7" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="85" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="198"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="200"/>
-      <c r="C10" s="201"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="213"/>
       <c r="D10" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109" t="s">
+      <c r="F10" s="117"/>
+      <c r="G10" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="174" t="s">
+      <c r="H10" s="118"/>
+      <c r="I10" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="174"/>
-      <c r="K10" s="83" t="s">
+      <c r="J10" s="189"/>
+      <c r="K10" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="84"/>
+      <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="107">
+      <c r="E11" s="116">
         <v>13</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107">
+      <c r="F11" s="116"/>
+      <c r="G11" s="116">
         <v>75</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="175">
+      <c r="H11" s="116"/>
+      <c r="I11" s="190">
         <v>15</v>
       </c>
-      <c r="J11" s="175"/>
-      <c r="K11" s="101">
+      <c r="J11" s="190"/>
+      <c r="K11" s="110">
         <f>((D11*500*45)/1000000)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="102"/>
+      <c r="L11" s="111"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="104"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="105">
+      <c r="E12" s="114">
         <v>3</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105">
+      <c r="F12" s="114"/>
+      <c r="G12" s="114">
         <v>20</v>
       </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="99">
+      <c r="H12" s="114"/>
+      <c r="I12" s="108">
         <v>4</v>
       </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="79">
+      <c r="J12" s="108"/>
+      <c r="K12" s="88">
         <f t="shared" ref="K12:K21" si="0">((D12*500*45)/1000000)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="80"/>
+      <c r="L12" s="89"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="104"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="105">
+      <c r="E13" s="114">
         <v>310</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105" t="s">
+      <c r="F13" s="114"/>
+      <c r="G13" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="99">
+      <c r="H13" s="114"/>
+      <c r="I13" s="108">
         <v>210</v>
       </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="79">
+      <c r="J13" s="108"/>
+      <c r="K13" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="80"/>
+      <c r="L13" s="89"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="30"/>
-      <c r="E14" s="105">
+      <c r="E14" s="114">
         <v>34</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105">
+      <c r="F14" s="114"/>
+      <c r="G14" s="114">
         <v>150</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="99">
+      <c r="H14" s="114"/>
+      <c r="I14" s="108">
         <v>30</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="79">
+      <c r="J14" s="108"/>
+      <c r="K14" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="80"/>
+      <c r="L14" s="89"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="104"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="105">
+      <c r="E15" s="114">
         <v>400</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105" t="s">
+      <c r="F15" s="114"/>
+      <c r="G15" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="99">
+      <c r="H15" s="114"/>
+      <c r="I15" s="108">
         <v>150</v>
       </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="79">
+      <c r="J15" s="108"/>
+      <c r="K15" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="80"/>
+      <c r="L15" s="89"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="104"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="105">
+      <c r="E16" s="114">
         <v>150</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105">
+      <c r="F16" s="114"/>
+      <c r="G16" s="114">
         <v>500</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="99">
+      <c r="H16" s="114"/>
+      <c r="I16" s="108">
         <v>100</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="79">
+      <c r="J16" s="108"/>
+      <c r="K16" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="80"/>
+      <c r="L16" s="89"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="104"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="105">
+      <c r="E17" s="114">
         <v>0.08</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105">
+      <c r="F17" s="114"/>
+      <c r="G17" s="114">
         <v>5</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="99">
+      <c r="H17" s="114"/>
+      <c r="I17" s="108">
         <v>1</v>
       </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="79">
+      <c r="J17" s="108"/>
+      <c r="K17" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="80"/>
+      <c r="L17" s="89"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="105">
+      <c r="E18" s="114">
         <v>5</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105">
+      <c r="F18" s="114"/>
+      <c r="G18" s="114">
         <v>20</v>
       </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="99">
+      <c r="H18" s="114"/>
+      <c r="I18" s="108">
         <v>4</v>
       </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="79">
+      <c r="J18" s="108"/>
+      <c r="K18" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="80"/>
+      <c r="L18" s="89"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="105">
+      <c r="E19" s="114">
         <v>62</v>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105">
+      <c r="F19" s="114"/>
+      <c r="G19" s="114">
         <v>180</v>
       </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="99">
+      <c r="H19" s="114"/>
+      <c r="I19" s="108">
         <v>36</v>
       </c>
-      <c r="J19" s="99"/>
-      <c r="K19" s="79">
+      <c r="J19" s="108"/>
+      <c r="K19" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="80"/>
+      <c r="L19" s="89"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="104"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="105">
+      <c r="E20" s="114">
         <v>2</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105">
+      <c r="F20" s="114"/>
+      <c r="G20" s="114">
         <v>14</v>
       </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="99">
+      <c r="H20" s="114"/>
+      <c r="I20" s="108">
         <v>2.8</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="79">
+      <c r="J20" s="108"/>
+      <c r="K20" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="80"/>
+      <c r="L20" s="89"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="192"/>
+      <c r="C21" s="204"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="159">
+      <c r="E21" s="175">
         <v>700</v>
       </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159">
+      <c r="F21" s="175"/>
+      <c r="G21" s="175">
         <v>1850</v>
       </c>
-      <c r="H21" s="159"/>
-      <c r="I21" s="139">
+      <c r="H21" s="175"/>
+      <c r="I21" s="152">
         <v>370</v>
       </c>
-      <c r="J21" s="139"/>
-      <c r="K21" s="81">
+      <c r="J21" s="152"/>
+      <c r="K21" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="82"/>
+      <c r="L21" s="91"/>
     </row>
     <row r="22" spans="1:12" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -2902,71 +2889,71 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="184"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="207" t="s">
+      <c r="D27" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="157"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="185" t="s">
+      <c r="B28" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="186"/>
+      <c r="C28" s="199"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="158"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="187" t="s">
+      <c r="B29" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="158"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="177"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="31"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="160"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2983,57 +2970,57 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="179"/>
-      <c r="D33" s="208" t="s">
+      <c r="C33" s="170"/>
+      <c r="D33" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="179" t="s">
+      <c r="E33" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179" t="s">
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="179"/>
-      <c r="J33" s="189"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="181"/>
+      <c r="C34" s="194"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="182" t="s">
+      <c r="E34" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182" t="s">
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="182"/>
-      <c r="J34" s="190"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="202"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="121"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122" t="s">
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="122"/>
-      <c r="J35" s="123"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="135"/>
     </row>
     <row r="36" spans="1:10" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
@@ -3114,32 +3101,32 @@
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="173" t="s">
+      <c r="A48" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="173"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="173"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="173"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="143"/>
     </row>
     <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="173" t="s">
+      <c r="A49" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="173"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="173"/>
-      <c r="E49" s="173"/>
-      <c r="F49" s="173"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="173"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="143"/>
+      <c r="J49" s="143"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="28"/>
@@ -3153,919 +3140,919 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="115"/>
-      <c r="L51" s="130"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="142"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="116" t="s">
+      <c r="A52" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="58"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="129"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="141"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
       <c r="D53" s="37"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="127"/>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="139"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="118" t="s">
+      <c r="A54" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
       <c r="D54" s="31"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="125"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="136"/>
+      <c r="L54" s="137"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="135" t="s">
+      <c r="A57" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="205" t="s">
+      <c r="B57" s="149"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="72" t="s">
+      <c r="E57" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="93"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="102"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="137"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="206"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="94"/>
+      <c r="A58" s="150"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="151"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="103"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="147"/>
       <c r="D59" s="58"/>
       <c r="E59" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="96"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="105"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="146" t="s">
+      <c r="A60" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="147"/>
-      <c r="C60" s="147"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="160"/>
       <c r="D60" s="37"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="98"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="107"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="146" t="s">
+      <c r="A61" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="147"/>
-      <c r="C61" s="147"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="160"/>
       <c r="D61" s="37"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="98"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="107"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="144" t="s">
+      <c r="A62" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
+      <c r="B62" s="158"/>
+      <c r="C62" s="158"/>
       <c r="D62" s="37"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="98"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="107"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="148" t="s">
+      <c r="A63" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="149"/>
-      <c r="C63" s="149"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="162"/>
       <c r="D63" s="37"/>
       <c r="E63" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97"/>
-      <c r="L63" s="98"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="107"/>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="148" t="s">
+      <c r="A64" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="149"/>
-      <c r="C64" s="149"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="162"/>
       <c r="D64" s="32"/>
       <c r="E64" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="100"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="108"/>
+      <c r="L64" s="109"/>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="148" t="s">
+      <c r="A65" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="149"/>
-      <c r="C65" s="149"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="162"/>
       <c r="D65" s="32"/>
       <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="100"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="109"/>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="131" t="s">
+      <c r="A66" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="145"/>
       <c r="D66" s="33"/>
       <c r="E66" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="139"/>
-      <c r="G66" s="139"/>
-      <c r="H66" s="139"/>
-      <c r="I66" s="139"/>
-      <c r="J66" s="139"/>
-      <c r="K66" s="139"/>
-      <c r="L66" s="140"/>
+      <c r="F66" s="152"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="152"/>
+      <c r="K66" s="152"/>
+      <c r="L66" s="153"/>
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="205" t="s">
+      <c r="B68" s="70"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="72" t="s">
+      <c r="E68" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F68" s="74" t="s">
+      <c r="F68" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="76"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="85"/>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="69"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="206"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="209" t="s">
+      <c r="A69" s="72"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="210"/>
-      <c r="H69" s="209" t="s">
+      <c r="G69" s="80"/>
+      <c r="H69" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="I69" s="210"/>
-      <c r="J69" s="211" t="s">
+      <c r="I69" s="80"/>
+      <c r="J69" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="K69" s="212" t="s">
+      <c r="K69" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="L69" s="213"/>
+      <c r="L69" s="82"/>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="170" t="s">
+      <c r="A70" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="171"/>
-      <c r="C70" s="172"/>
+      <c r="B70" s="187"/>
+      <c r="C70" s="188"/>
       <c r="D70" s="40"/>
       <c r="E70" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="91">
+      <c r="F70" s="100">
         <f>D70/0.1</f>
         <v>0</v>
       </c>
-      <c r="G70" s="91"/>
-      <c r="H70" s="91">
+      <c r="G70" s="100"/>
+      <c r="H70" s="100">
         <f>D70*20</f>
         <v>0</v>
       </c>
-      <c r="I70" s="91"/>
+      <c r="I70" s="100"/>
       <c r="J70" s="34">
         <f>D70*0.01</f>
         <v>0</v>
       </c>
-      <c r="K70" s="91">
+      <c r="K70" s="100">
         <f>D70*100</f>
         <v>0</v>
       </c>
-      <c r="L70" s="92"/>
+      <c r="L70" s="101"/>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="153" t="s">
+      <c r="A71" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="154"/>
-      <c r="C71" s="155"/>
+      <c r="B71" s="167"/>
+      <c r="C71" s="168"/>
       <c r="D71" s="39"/>
       <c r="E71" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="77">
+      <c r="F71" s="86">
         <f>D71*0.001</f>
         <v>0</v>
       </c>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77">
+      <c r="G71" s="86"/>
+      <c r="H71" s="86">
         <f>D71*0.002</f>
         <v>0</v>
       </c>
-      <c r="I71" s="77"/>
+      <c r="I71" s="86"/>
       <c r="J71" s="35">
         <f>D71/1000000</f>
         <v>0</v>
       </c>
-      <c r="K71" s="77">
+      <c r="K71" s="86">
         <f>D71/100</f>
         <v>0</v>
       </c>
-      <c r="L71" s="78"/>
+      <c r="L71" s="87"/>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="153" t="s">
+      <c r="A72" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="154"/>
-      <c r="C72" s="155"/>
+      <c r="B72" s="167"/>
+      <c r="C72" s="168"/>
       <c r="D72" s="39"/>
       <c r="E72" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="77">
+      <c r="F72" s="86">
         <f>D72*0.001</f>
         <v>0</v>
       </c>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77">
+      <c r="G72" s="86"/>
+      <c r="H72" s="86">
         <f>D72*0.002</f>
         <v>0</v>
       </c>
-      <c r="I72" s="77"/>
+      <c r="I72" s="86"/>
       <c r="J72" s="35">
         <f t="shared" ref="J72:J80" si="1">D72*0.01</f>
         <v>0</v>
       </c>
-      <c r="K72" s="77">
+      <c r="K72" s="86">
         <f>D72/100</f>
         <v>0</v>
       </c>
-      <c r="L72" s="78"/>
+      <c r="L72" s="87"/>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="167" t="s">
+      <c r="A73" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="168"/>
-      <c r="C73" s="169"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="185"/>
       <c r="D73" s="39"/>
       <c r="E73" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="77">
+      <c r="F73" s="86">
         <f t="shared" ref="F73" si="2">D73/0.1</f>
         <v>0</v>
       </c>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77">
+      <c r="G73" s="86"/>
+      <c r="H73" s="86">
         <f t="shared" ref="H73:H80" si="3">D73*20</f>
         <v>0</v>
       </c>
-      <c r="I73" s="77"/>
+      <c r="I73" s="86"/>
       <c r="J73" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K73" s="77">
+      <c r="K73" s="86">
         <f t="shared" ref="K73:K80" si="4">D73*100</f>
         <v>0</v>
       </c>
-      <c r="L73" s="78"/>
+      <c r="L73" s="87"/>
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="161" t="s">
+      <c r="A74" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="162"/>
-      <c r="C74" s="163"/>
+      <c r="B74" s="178"/>
+      <c r="C74" s="179"/>
       <c r="D74" s="39"/>
       <c r="E74" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="77">
+      <c r="F74" s="86">
         <f t="shared" ref="F74:F80" si="5">D74/0.1</f>
         <v>0</v>
       </c>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77">
+      <c r="G74" s="86"/>
+      <c r="H74" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I74" s="77"/>
+      <c r="I74" s="86"/>
       <c r="J74" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K74" s="77">
+      <c r="K74" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L74" s="78"/>
+      <c r="L74" s="87"/>
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="164" t="s">
+      <c r="A75" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="165"/>
-      <c r="C75" s="166"/>
+      <c r="B75" s="181"/>
+      <c r="C75" s="182"/>
       <c r="D75" s="39"/>
       <c r="E75" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="77">
+      <c r="F75" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77">
+      <c r="G75" s="86"/>
+      <c r="H75" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I75" s="77"/>
+      <c r="I75" s="86"/>
       <c r="J75" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K75" s="77">
+      <c r="K75" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L75" s="78"/>
+      <c r="L75" s="87"/>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="141" t="s">
+      <c r="A76" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="B76" s="142"/>
-      <c r="C76" s="143"/>
+      <c r="B76" s="155"/>
+      <c r="C76" s="156"/>
       <c r="D76" s="39"/>
       <c r="E76" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="77">
+      <c r="F76" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G76" s="77"/>
-      <c r="H76" s="77">
+      <c r="G76" s="86"/>
+      <c r="H76" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I76" s="77"/>
+      <c r="I76" s="86"/>
       <c r="J76" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K76" s="77">
+      <c r="K76" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L76" s="78"/>
+      <c r="L76" s="87"/>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="153" t="s">
+      <c r="A77" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="154"/>
-      <c r="C77" s="155"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="168"/>
       <c r="D77" s="39"/>
       <c r="E77" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="77">
+      <c r="F77" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77">
+      <c r="G77" s="86"/>
+      <c r="H77" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="77"/>
+      <c r="I77" s="86"/>
       <c r="J77" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K77" s="77">
+      <c r="K77" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L77" s="78"/>
+      <c r="L77" s="87"/>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="153" t="s">
+      <c r="A78" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="154"/>
-      <c r="C78" s="155"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="168"/>
       <c r="D78" s="39"/>
       <c r="E78" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="77">
+      <c r="F78" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G78" s="77"/>
-      <c r="H78" s="77">
+      <c r="G78" s="86"/>
+      <c r="H78" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I78" s="77"/>
+      <c r="I78" s="86"/>
       <c r="J78" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K78" s="77">
+      <c r="K78" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L78" s="78"/>
+      <c r="L78" s="87"/>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="154"/>
-      <c r="C79" s="155"/>
+      <c r="B79" s="167"/>
+      <c r="C79" s="168"/>
       <c r="D79" s="39"/>
       <c r="E79" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F79" s="77">
+      <c r="F79" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G79" s="77"/>
-      <c r="H79" s="77">
+      <c r="G79" s="86"/>
+      <c r="H79" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I79" s="77"/>
+      <c r="I79" s="86"/>
       <c r="J79" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K79" s="77">
+      <c r="K79" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L79" s="78"/>
+      <c r="L79" s="87"/>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="153" t="s">
+      <c r="A80" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="154"/>
-      <c r="C80" s="155"/>
+      <c r="B80" s="167"/>
+      <c r="C80" s="168"/>
       <c r="D80" s="39"/>
       <c r="E80" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="77">
+      <c r="F80" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77">
+      <c r="G80" s="86"/>
+      <c r="H80" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I80" s="77"/>
+      <c r="I80" s="86"/>
       <c r="J80" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K80" s="77">
+      <c r="K80" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L80" s="78"/>
+      <c r="L80" s="87"/>
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="153" t="s">
+      <c r="A81" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="154"/>
-      <c r="C81" s="155"/>
+      <c r="B81" s="167"/>
+      <c r="C81" s="168"/>
       <c r="D81" s="39"/>
       <c r="E81" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="77">
+      <c r="F81" s="86">
         <f>D81*0.001</f>
         <v>0</v>
       </c>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77">
+      <c r="G81" s="86"/>
+      <c r="H81" s="86">
         <f>D81*0.002</f>
         <v>0</v>
       </c>
-      <c r="I81" s="77"/>
+      <c r="I81" s="86"/>
       <c r="J81" s="35">
         <f t="shared" ref="J81:J89" si="6">D81/1000000</f>
         <v>0</v>
       </c>
-      <c r="K81" s="77">
+      <c r="K81" s="86">
         <f>D81/100</f>
         <v>0</v>
       </c>
-      <c r="L81" s="78"/>
+      <c r="L81" s="87"/>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="153" t="s">
+      <c r="A82" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="154"/>
-      <c r="C82" s="155"/>
+      <c r="B82" s="167"/>
+      <c r="C82" s="168"/>
       <c r="D82" s="39"/>
       <c r="E82" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="77">
+      <c r="F82" s="86">
         <f t="shared" ref="F82:F89" si="7">D82*0.001</f>
         <v>0</v>
       </c>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77">
+      <c r="G82" s="86"/>
+      <c r="H82" s="86">
         <f t="shared" ref="H82:H88" si="8">D82*0.002</f>
         <v>0</v>
       </c>
-      <c r="I82" s="77"/>
+      <c r="I82" s="86"/>
       <c r="J82" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K82" s="77">
+      <c r="K82" s="86">
         <f t="shared" ref="K82:K89" si="9">D82/100</f>
         <v>0</v>
       </c>
-      <c r="L82" s="78"/>
+      <c r="L82" s="87"/>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="141" t="s">
+      <c r="A83" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="142"/>
-      <c r="C83" s="143"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="156"/>
       <c r="D83" s="39"/>
       <c r="E83" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="77">
+      <c r="F83" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77">
+      <c r="G83" s="86"/>
+      <c r="H83" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I83" s="77"/>
+      <c r="I83" s="86"/>
       <c r="J83" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K83" s="77">
+      <c r="K83" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L83" s="78"/>
+      <c r="L83" s="87"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="141" t="s">
+      <c r="A84" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="142"/>
-      <c r="C84" s="143"/>
+      <c r="B84" s="155"/>
+      <c r="C84" s="156"/>
       <c r="D84" s="39"/>
       <c r="E84" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="77">
+      <c r="F84" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77">
+      <c r="G84" s="86"/>
+      <c r="H84" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I84" s="77"/>
+      <c r="I84" s="86"/>
       <c r="J84" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K84" s="77">
+      <c r="K84" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L84" s="78"/>
+      <c r="L84" s="87"/>
     </row>
     <row r="85" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="141" t="s">
+      <c r="A85" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="B85" s="142"/>
-      <c r="C85" s="143"/>
+      <c r="B85" s="155"/>
+      <c r="C85" s="156"/>
       <c r="D85" s="39"/>
       <c r="E85" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F85" s="77">
+      <c r="F85" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77">
+      <c r="G85" s="86"/>
+      <c r="H85" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I85" s="77"/>
+      <c r="I85" s="86"/>
       <c r="J85" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K85" s="77">
+      <c r="K85" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L85" s="78"/>
+      <c r="L85" s="87"/>
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="141" t="s">
+      <c r="A86" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="142"/>
-      <c r="C86" s="143"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="156"/>
       <c r="D86" s="39"/>
       <c r="E86" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="77">
+      <c r="F86" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77">
+      <c r="G86" s="86"/>
+      <c r="H86" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I86" s="77"/>
+      <c r="I86" s="86"/>
       <c r="J86" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K86" s="77">
+      <c r="K86" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L86" s="78"/>
+      <c r="L86" s="87"/>
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="141" t="s">
+      <c r="A87" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="B87" s="142"/>
-      <c r="C87" s="143"/>
+      <c r="B87" s="155"/>
+      <c r="C87" s="156"/>
       <c r="D87" s="39"/>
       <c r="E87" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="77">
+      <c r="F87" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77">
+      <c r="G87" s="86"/>
+      <c r="H87" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I87" s="77"/>
+      <c r="I87" s="86"/>
       <c r="J87" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K87" s="77">
+      <c r="K87" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L87" s="78"/>
+      <c r="L87" s="87"/>
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="B88" s="142"/>
-      <c r="C88" s="143"/>
+      <c r="B88" s="155"/>
+      <c r="C88" s="156"/>
       <c r="D88" s="39"/>
       <c r="E88" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F88" s="77">
+      <c r="F88" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77">
+      <c r="G88" s="86"/>
+      <c r="H88" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I88" s="77"/>
+      <c r="I88" s="86"/>
       <c r="J88" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K88" s="77">
+      <c r="K88" s="86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L88" s="78"/>
+      <c r="L88" s="87"/>
     </row>
     <row r="89" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="150" t="s">
+      <c r="A89" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="151"/>
-      <c r="C89" s="152"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="165"/>
       <c r="D89" s="41"/>
       <c r="E89" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F89" s="64">
+      <c r="F89" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64">
+      <c r="G89" s="67"/>
+      <c r="H89" s="67">
         <f t="shared" ref="H89" si="10">D89*0.002</f>
         <v>0</v>
       </c>
-      <c r="I89" s="64"/>
+      <c r="I89" s="67"/>
       <c r="J89" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K89" s="64">
+      <c r="K89" s="67">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L89" s="65"/>
+      <c r="L89" s="68"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="24"/>
